--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SCHOOL\HACK JAM 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SCHOOL\HACK JAM 2022\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -630,6 +630,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,9 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX1463"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:L52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,593 +975,593 @@
       <c r="B1" s="39">
         <v>44835</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="53"/>
-      <c r="AU3" s="53"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="53"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="40"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-      <c r="AV7" s="47"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
-      <c r="AV8" s="47"/>
-      <c r="AW8" s="47"/>
-      <c r="AX8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="42"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="47"/>
-      <c r="AS9" s="47"/>
-      <c r="AT9" s="47"/>
-      <c r="AU9" s="47"/>
-      <c r="AV9" s="47"/>
-      <c r="AW9" s="47"/>
-      <c r="AX9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
-      <c r="AP10" s="47"/>
-      <c r="AQ10" s="47"/>
-      <c r="AR10" s="47"/>
-      <c r="AS10" s="47"/>
-      <c r="AT10" s="47"/>
-      <c r="AU10" s="47"/>
-      <c r="AV10" s="47"/>
-      <c r="AW10" s="47"/>
-      <c r="AX10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="48" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="51"/>
       <c r="AI11" s="18"/>
-      <c r="AJ11" s="48" t="s">
+      <c r="AJ11" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="49"/>
-      <c r="AP11" s="49"/>
-      <c r="AQ11" s="49"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="49"/>
-      <c r="AT11" s="49"/>
-      <c r="AU11" s="49"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="49"/>
-      <c r="AX11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50"/>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="51"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="23">
         <f>$B$1</f>
         <v>44835</v>
@@ -1962,7 +1962,7 @@
       <c r="C15" s="30">
         <v>44836</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="35"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3866,8 +3866,8 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="38"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
       <c r="Q50" s="36"/>
       <c r="R50" s="36"/>
       <c r="S50" s="36"/>
@@ -3924,7 +3924,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="38"/>
-      <c r="P51" s="36"/>
+      <c r="P51" s="37"/>
       <c r="Q51" s="36"/>
       <c r="R51" s="36"/>
       <c r="S51" s="36"/>
